--- a/app/data/constructor/plan_2020-12-17.xlsx
+++ b/app/data/constructor/plan_2020-12-17.xlsx
@@ -514,6 +514,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Остатки</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Разделитель</t>
         </is>
       </c>
@@ -3582,6 +3587,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Остатки</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Разделитель</t>
         </is>
       </c>

--- a/app/data/constructor/plan_2020-12-17.xlsx
+++ b/app/data/constructor/plan_2020-12-17.xlsx
@@ -623,7 +623,7 @@
         <v/>
       </c>
       <c r="K3" s="3">
-        <f>IF(I3 = "-", SUM(J$3:J3), 0)</f>
+        <f>IF(I3 = "-", SUM(J$2:J3), 0)</f>
         <v/>
       </c>
       <c r="L3" s="3">
@@ -674,7 +674,7 @@
         <v/>
       </c>
       <c r="K4" s="2">
-        <f>IF(I4 = "-", SUM(J$4:J4), 0)</f>
+        <f>IF(I4 = "-", SUM(J$2:J4), 0)</f>
         <v/>
       </c>
       <c r="L4" s="2">
@@ -735,7 +735,7 @@
         <v/>
       </c>
       <c r="K5" s="3">
-        <f>IF(I5 = "-", SUM(J$5:J5), 0)</f>
+        <f>IF(I5 = "-", SUM(J$2:J5), 0)</f>
         <v/>
       </c>
       <c r="L5" s="3">
@@ -786,7 +786,7 @@
         <v/>
       </c>
       <c r="K6" s="2">
-        <f>IF(I6 = "-", SUM(J$6:J6), 0)</f>
+        <f>IF(I6 = "-", SUM(J$2:J6), 0)</f>
         <v/>
       </c>
       <c r="L6" s="2">
@@ -847,7 +847,7 @@
         <v/>
       </c>
       <c r="K7" s="3">
-        <f>IF(I7 = "-", SUM(J$7:J7), 0)</f>
+        <f>IF(I7 = "-", SUM(J$2:J7), 0)</f>
         <v/>
       </c>
       <c r="L7" s="3">
@@ -898,7 +898,7 @@
         <v/>
       </c>
       <c r="K8" s="2">
-        <f>IF(I8 = "-", SUM(J$8:J8), 0)</f>
+        <f>IF(I8 = "-", SUM(J$2:J8), 0)</f>
         <v/>
       </c>
       <c r="L8" s="2">
@@ -959,7 +959,7 @@
         <v/>
       </c>
       <c r="K9" s="3">
-        <f>IF(I9 = "-", SUM(J$9:J9), 0)</f>
+        <f>IF(I9 = "-", SUM(J$2:J9), 0)</f>
         <v/>
       </c>
       <c r="L9" s="3">
@@ -1010,7 +1010,7 @@
         <v/>
       </c>
       <c r="K10" s="2">
-        <f>IF(I10 = "-", SUM(J$10:J10), 0)</f>
+        <f>IF(I10 = "-", SUM(J$2:J10), 0)</f>
         <v/>
       </c>
       <c r="L10" s="2">
@@ -1071,7 +1071,7 @@
         <v/>
       </c>
       <c r="K11" s="3">
-        <f>IF(I11 = "-", SUM(J$11:J11), 0)</f>
+        <f>IF(I11 = "-", SUM(J$2:J11), 0)</f>
         <v/>
       </c>
       <c r="L11" s="3">
@@ -1122,7 +1122,7 @@
         <v/>
       </c>
       <c r="K12" s="2">
-        <f>IF(I12 = "-", SUM(J$12:J12), 0)</f>
+        <f>IF(I12 = "-", SUM(J$2:J12), 0)</f>
         <v/>
       </c>
       <c r="L12" s="2">
@@ -1183,7 +1183,7 @@
         <v/>
       </c>
       <c r="K13" s="3">
-        <f>IF(I13 = "-", SUM(J$13:J13), 0)</f>
+        <f>IF(I13 = "-", SUM(J$2:J13), 0)</f>
         <v/>
       </c>
       <c r="L13" s="3">
@@ -1234,7 +1234,7 @@
         <v/>
       </c>
       <c r="K14" s="2">
-        <f>IF(I14 = "-", SUM(J$14:J14), 0)</f>
+        <f>IF(I14 = "-", SUM(J$2:J14), 0)</f>
         <v/>
       </c>
       <c r="L14" s="2">
@@ -1295,7 +1295,7 @@
         <v/>
       </c>
       <c r="K15" s="3">
-        <f>IF(I15 = "-", SUM(J$15:J15), 0)</f>
+        <f>IF(I15 = "-", SUM(J$2:J15), 0)</f>
         <v/>
       </c>
       <c r="L15" s="3">
@@ -1346,7 +1346,7 @@
         <v/>
       </c>
       <c r="K16" s="2">
-        <f>IF(I16 = "-", SUM(J$16:J16), 0)</f>
+        <f>IF(I16 = "-", SUM(J$2:J16), 0)</f>
         <v/>
       </c>
       <c r="L16" s="2">
@@ -1407,7 +1407,7 @@
         <v/>
       </c>
       <c r="K17" s="3">
-        <f>IF(I17 = "-", SUM(J$17:J17), 0)</f>
+        <f>IF(I17 = "-", SUM(J$2:J17), 0)</f>
         <v/>
       </c>
       <c r="L17" s="3">
@@ -1458,7 +1458,7 @@
         <v/>
       </c>
       <c r="K18" s="2">
-        <f>IF(I18 = "-", SUM(J$18:J18), 0)</f>
+        <f>IF(I18 = "-", SUM(J$2:J18), 0)</f>
         <v/>
       </c>
       <c r="L18" s="2">
@@ -1519,7 +1519,7 @@
         <v/>
       </c>
       <c r="K19" s="3">
-        <f>IF(I19 = "-", SUM(J$19:J19), 0)</f>
+        <f>IF(I19 = "-", SUM(J$2:J19), 0)</f>
         <v/>
       </c>
       <c r="L19" s="3">
@@ -1570,7 +1570,7 @@
         <v/>
       </c>
       <c r="K20" s="4">
-        <f>IF(I20 = "-", SUM(J$20:J20), 0)</f>
+        <f>IF(I20 = "-", SUM(J$2:J20), 0)</f>
         <v/>
       </c>
       <c r="L20" s="4">
@@ -1631,7 +1631,7 @@
         <v/>
       </c>
       <c r="K21" s="3">
-        <f>IF(I21 = "-", SUM(J$21:J21), 0)</f>
+        <f>IF(I21 = "-", SUM(J$2:J21), 0)</f>
         <v/>
       </c>
       <c r="L21" s="3">
@@ -1682,7 +1682,7 @@
         <v/>
       </c>
       <c r="K22" s="4">
-        <f>IF(I22 = "-", SUM(J$22:J22), 0)</f>
+        <f>IF(I22 = "-", SUM(J$2:J22), 0)</f>
         <v/>
       </c>
       <c r="L22" s="4">
@@ -1743,7 +1743,7 @@
         <v/>
       </c>
       <c r="K23" s="3">
-        <f>IF(I23 = "-", SUM(J$23:J23), 0)</f>
+        <f>IF(I23 = "-", SUM(J$2:J23), 0)</f>
         <v/>
       </c>
       <c r="L23" s="3">
@@ -1794,7 +1794,7 @@
         <v/>
       </c>
       <c r="K24" s="4">
-        <f>IF(I24 = "-", SUM(J$24:J24), 0)</f>
+        <f>IF(I24 = "-", SUM(J$2:J24), 0)</f>
         <v/>
       </c>
       <c r="L24" s="4">
@@ -1855,7 +1855,7 @@
         <v/>
       </c>
       <c r="K25" s="3">
-        <f>IF(I25 = "-", SUM(J$25:J25), 0)</f>
+        <f>IF(I25 = "-", SUM(J$2:J25), 0)</f>
         <v/>
       </c>
       <c r="L25" s="3">
@@ -1906,7 +1906,7 @@
         <v/>
       </c>
       <c r="K26" s="2">
-        <f>IF(I26 = "-", SUM(J$26:J26), 0)</f>
+        <f>IF(I26 = "-", SUM(J$2:J26), 0)</f>
         <v/>
       </c>
       <c r="L26" s="2">
@@ -1957,7 +1957,7 @@
         <v/>
       </c>
       <c r="K27" s="2">
-        <f>IF(I27 = "-", SUM(J$27:J27), 0)</f>
+        <f>IF(I27 = "-", SUM(J$2:J27), 0)</f>
         <v/>
       </c>
       <c r="L27" s="2">
@@ -2018,7 +2018,7 @@
         <v/>
       </c>
       <c r="K28" s="3">
-        <f>IF(I28 = "-", SUM(J$28:J28), 0)</f>
+        <f>IF(I28 = "-", SUM(J$2:J28), 0)</f>
         <v/>
       </c>
       <c r="L28" s="3">
@@ -2069,7 +2069,7 @@
         <v/>
       </c>
       <c r="K29" s="4">
-        <f>IF(I29 = "-", SUM(J$29:J29), 0)</f>
+        <f>IF(I29 = "-", SUM(J$2:J29), 0)</f>
         <v/>
       </c>
       <c r="L29" s="4">
@@ -2120,7 +2120,7 @@
         <v/>
       </c>
       <c r="K30" s="2">
-        <f>IF(I30 = "-", SUM(J$30:J30), 0)</f>
+        <f>IF(I30 = "-", SUM(J$2:J30), 0)</f>
         <v/>
       </c>
       <c r="L30" s="2">
@@ -2181,7 +2181,7 @@
         <v/>
       </c>
       <c r="K31" s="3">
-        <f>IF(I31 = "-", SUM(J$31:J31), 0)</f>
+        <f>IF(I31 = "-", SUM(J$2:J31), 0)</f>
         <v/>
       </c>
       <c r="L31" s="3">
@@ -2232,7 +2232,7 @@
         <v/>
       </c>
       <c r="K32" s="4">
-        <f>IF(I32 = "-", SUM(J$32:J32), 0)</f>
+        <f>IF(I32 = "-", SUM(J$2:J32), 0)</f>
         <v/>
       </c>
       <c r="L32" s="4">
@@ -2283,7 +2283,7 @@
         <v/>
       </c>
       <c r="K33" s="4">
-        <f>IF(I33 = "-", SUM(J$33:J33), 0)</f>
+        <f>IF(I33 = "-", SUM(J$2:J33), 0)</f>
         <v/>
       </c>
       <c r="L33" s="4">
@@ -2334,7 +2334,7 @@
         <v/>
       </c>
       <c r="K34" s="4">
-        <f>IF(I34 = "-", SUM(J$34:J34), 0)</f>
+        <f>IF(I34 = "-", SUM(J$2:J34), 0)</f>
         <v/>
       </c>
       <c r="L34" s="4">
@@ -2385,7 +2385,7 @@
         <v/>
       </c>
       <c r="K35" s="4">
-        <f>IF(I35 = "-", SUM(J$35:J35), 0)</f>
+        <f>IF(I35 = "-", SUM(J$2:J35), 0)</f>
         <v/>
       </c>
       <c r="L35" s="4">
@@ -2436,7 +2436,7 @@
         <v/>
       </c>
       <c r="K36" s="2">
-        <f>IF(I36 = "-", SUM(J$36:J36), 0)</f>
+        <f>IF(I36 = "-", SUM(J$2:J36), 0)</f>
         <v/>
       </c>
       <c r="L36" s="2">
@@ -2487,7 +2487,7 @@
         <v/>
       </c>
       <c r="K37" s="2">
-        <f>IF(I37 = "-", SUM(J$37:J37), 0)</f>
+        <f>IF(I37 = "-", SUM(J$2:J37), 0)</f>
         <v/>
       </c>
       <c r="L37" s="2">
@@ -2548,7 +2548,7 @@
         <v/>
       </c>
       <c r="K38" s="3">
-        <f>IF(I38 = "-", SUM(J$38:J38), 0)</f>
+        <f>IF(I38 = "-", SUM(J$2:J38), 0)</f>
         <v/>
       </c>
       <c r="L38" s="3">
@@ -2599,7 +2599,7 @@
         <v/>
       </c>
       <c r="K39" s="4">
-        <f>IF(I39 = "-", SUM(J$39:J39), 0)</f>
+        <f>IF(I39 = "-", SUM(J$2:J39), 0)</f>
         <v/>
       </c>
       <c r="L39" s="4">
@@ -2660,7 +2660,7 @@
         <v/>
       </c>
       <c r="K40" s="3">
-        <f>IF(I40 = "-", SUM(J$40:J40), 0)</f>
+        <f>IF(I40 = "-", SUM(J$2:J40), 0)</f>
         <v/>
       </c>
       <c r="L40" s="3">
@@ -2711,7 +2711,7 @@
         <v/>
       </c>
       <c r="K41" s="4">
-        <f>IF(I41 = "-", SUM(J$41:J41), 0)</f>
+        <f>IF(I41 = "-", SUM(J$2:J41), 0)</f>
         <v/>
       </c>
       <c r="L41" s="4">
@@ -2772,7 +2772,7 @@
         <v/>
       </c>
       <c r="K42" s="3">
-        <f>IF(I42 = "-", SUM(J$42:J42), 0)</f>
+        <f>IF(I42 = "-", SUM(J$2:J42), 0)</f>
         <v/>
       </c>
       <c r="L42" s="3">
@@ -2823,7 +2823,7 @@
         <v/>
       </c>
       <c r="K43" s="4">
-        <f>IF(I43 = "-", SUM(J$43:J43), 0)</f>
+        <f>IF(I43 = "-", SUM(J$2:J43), 0)</f>
         <v/>
       </c>
       <c r="L43" s="4">
@@ -2884,7 +2884,7 @@
         <v/>
       </c>
       <c r="K44" s="3">
-        <f>IF(I44 = "-", SUM(J$44:J44), 0)</f>
+        <f>IF(I44 = "-", SUM(J$2:J44), 0)</f>
         <v/>
       </c>
       <c r="L44" s="3">
@@ -3696,7 +3696,7 @@
         <v/>
       </c>
       <c r="K3" s="3">
-        <f>IF(I3 = "-", SUM(J$3:J3), 0)</f>
+        <f>IF(I3 = "-", SUM(J$2:J3), 0)</f>
         <v/>
       </c>
       <c r="L3" s="3">
@@ -3747,7 +3747,7 @@
         <v/>
       </c>
       <c r="K4" s="7">
-        <f>IF(I4 = "-", SUM(J$4:J4), 0)</f>
+        <f>IF(I4 = "-", SUM(J$2:J4), 0)</f>
         <v/>
       </c>
       <c r="L4" s="7">
@@ -3798,7 +3798,7 @@
         <v/>
       </c>
       <c r="K5" s="7">
-        <f>IF(I5 = "-", SUM(J$5:J5), 0)</f>
+        <f>IF(I5 = "-", SUM(J$2:J5), 0)</f>
         <v/>
       </c>
       <c r="L5" s="7">
@@ -3849,7 +3849,7 @@
         <v/>
       </c>
       <c r="K6" s="6">
-        <f>IF(I6 = "-", SUM(J$6:J6), 0)</f>
+        <f>IF(I6 = "-", SUM(J$2:J6), 0)</f>
         <v/>
       </c>
       <c r="L6" s="6">
@@ -3900,7 +3900,7 @@
         <v/>
       </c>
       <c r="K7" s="6">
-        <f>IF(I7 = "-", SUM(J$7:J7), 0)</f>
+        <f>IF(I7 = "-", SUM(J$2:J7), 0)</f>
         <v/>
       </c>
       <c r="L7" s="6">
@@ -3961,7 +3961,7 @@
         <v/>
       </c>
       <c r="K8" s="3">
-        <f>IF(I8 = "-", SUM(J$8:J8), 0)</f>
+        <f>IF(I8 = "-", SUM(J$2:J8), 0)</f>
         <v/>
       </c>
       <c r="L8" s="3">
@@ -4012,7 +4012,7 @@
         <v/>
       </c>
       <c r="K9" s="7">
-        <f>IF(I9 = "-", SUM(J$9:J9), 0)</f>
+        <f>IF(I9 = "-", SUM(J$2:J9), 0)</f>
         <v/>
       </c>
       <c r="L9" s="7">
@@ -4063,7 +4063,7 @@
         <v/>
       </c>
       <c r="K10" s="7">
-        <f>IF(I10 = "-", SUM(J$10:J10), 0)</f>
+        <f>IF(I10 = "-", SUM(J$2:J10), 0)</f>
         <v/>
       </c>
       <c r="L10" s="7">
@@ -4114,7 +4114,7 @@
         <v/>
       </c>
       <c r="K11" s="7">
-        <f>IF(I11 = "-", SUM(J$11:J11), 0)</f>
+        <f>IF(I11 = "-", SUM(J$2:J11), 0)</f>
         <v/>
       </c>
       <c r="L11" s="7">
@@ -4165,7 +4165,7 @@
         <v/>
       </c>
       <c r="K12" s="7">
-        <f>IF(I12 = "-", SUM(J$12:J12), 0)</f>
+        <f>IF(I12 = "-", SUM(J$2:J12), 0)</f>
         <v/>
       </c>
       <c r="L12" s="7">
@@ -4216,7 +4216,7 @@
         <v/>
       </c>
       <c r="K13" s="6">
-        <f>IF(I13 = "-", SUM(J$13:J13), 0)</f>
+        <f>IF(I13 = "-", SUM(J$2:J13), 0)</f>
         <v/>
       </c>
       <c r="L13" s="6">
@@ -4267,7 +4267,7 @@
         <v/>
       </c>
       <c r="K14" s="6">
-        <f>IF(I14 = "-", SUM(J$14:J14), 0)</f>
+        <f>IF(I14 = "-", SUM(J$2:J14), 0)</f>
         <v/>
       </c>
       <c r="L14" s="6">
@@ -4328,7 +4328,7 @@
         <v/>
       </c>
       <c r="K15" s="3">
-        <f>IF(I15 = "-", SUM(J$15:J15), 0)</f>
+        <f>IF(I15 = "-", SUM(J$2:J15), 0)</f>
         <v/>
       </c>
       <c r="L15" s="3">
@@ -4379,7 +4379,7 @@
         <v/>
       </c>
       <c r="K16" s="6">
-        <f>IF(I16 = "-", SUM(J$16:J16), 0)</f>
+        <f>IF(I16 = "-", SUM(J$2:J16), 0)</f>
         <v/>
       </c>
       <c r="L16" s="6">
@@ -4440,7 +4440,7 @@
         <v/>
       </c>
       <c r="K17" s="3">
-        <f>IF(I17 = "-", SUM(J$17:J17), 0)</f>
+        <f>IF(I17 = "-", SUM(J$2:J17), 0)</f>
         <v/>
       </c>
       <c r="L17" s="3">
@@ -4491,7 +4491,7 @@
         <v/>
       </c>
       <c r="K18" s="6">
-        <f>IF(I18 = "-", SUM(J$18:J18), 0)</f>
+        <f>IF(I18 = "-", SUM(J$2:J18), 0)</f>
         <v/>
       </c>
       <c r="L18" s="6">
@@ -4552,7 +4552,7 @@
         <v/>
       </c>
       <c r="K19" s="3">
-        <f>IF(I19 = "-", SUM(J$19:J19), 0)</f>
+        <f>IF(I19 = "-", SUM(J$2:J19), 0)</f>
         <v/>
       </c>
       <c r="L19" s="3">

--- a/app/data/constructor/plan_2020-12-17.xlsx
+++ b/app/data/constructor/plan_2020-12-17.xlsx
@@ -463,13 +463,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col hidden="1" width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
+    <col hidden="1" width="13" customWidth="1" min="8" max="8"/>
     <col hidden="1" width="13" customWidth="1" min="10" max="10"/>
     <col hidden="1" width="13" customWidth="1" min="11" max="11"/>
     <col hidden="1" width="13" customWidth="1" min="12" max="12"/>
@@ -3536,13 +3537,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col hidden="1" width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
+    <col hidden="1" width="13" customWidth="1" min="8" max="8"/>
     <col hidden="1" width="13" customWidth="1" min="10" max="10"/>
     <col hidden="1" width="13" customWidth="1" min="11" max="11"/>
     <col hidden="1" width="13" customWidth="1" min="12" max="12"/>

--- a/app/data/constructor/plan_2020-12-17.xlsx
+++ b/app/data/constructor/plan_2020-12-17.xlsx
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>IF(I2="-", "", 1 +SUM(L$2:L2))</f>
+        <f>IF(I2="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L2)))))</f>
         <v/>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -563,7 +563,7 @@
         <v/>
       </c>
       <c r="K2" s="2">
-        <f>IF(I2 = "-", SUM(J$2:J2), 0)</f>
+        <f>IF(I2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J2)))), 0)</f>
         <v/>
       </c>
       <c r="L2" s="2">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B3" s="3">
-        <f>IF(I3="-", "", 1 +SUM(L$2:L3))</f>
+        <f>IF(I3="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L3)))))</f>
         <v/>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -624,7 +624,7 @@
         <v/>
       </c>
       <c r="K3" s="3">
-        <f>IF(I3 = "-", SUM(J$2:J3), 0)</f>
+        <f>IF(I3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J3)))), 0)</f>
         <v/>
       </c>
       <c r="L3" s="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <f>IF(I4="-", "", 1 +SUM(L$2:L4))</f>
+        <f>IF(I4="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L4)))))</f>
         <v/>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -675,7 +675,7 @@
         <v/>
       </c>
       <c r="K4" s="2">
-        <f>IF(I4 = "-", SUM(J$2:J4), 0)</f>
+        <f>IF(I4 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J4)))), 0)</f>
         <v/>
       </c>
       <c r="L4" s="2">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B5" s="3">
-        <f>IF(I5="-", "", 1 +SUM(L$2:L5))</f>
+        <f>IF(I5="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L5)))))</f>
         <v/>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -736,7 +736,7 @@
         <v/>
       </c>
       <c r="K5" s="3">
-        <f>IF(I5 = "-", SUM(J$2:J5), 0)</f>
+        <f>IF(I5 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J5)))), 0)</f>
         <v/>
       </c>
       <c r="L5" s="3">
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <f>IF(I6="-", "", 1 +SUM(L$2:L6))</f>
+        <f>IF(I6="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L6)))))</f>
         <v/>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -787,7 +787,7 @@
         <v/>
       </c>
       <c r="K6" s="2">
-        <f>IF(I6 = "-", SUM(J$2:J6), 0)</f>
+        <f>IF(I6 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J6)))), 0)</f>
         <v/>
       </c>
       <c r="L6" s="2">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B7" s="3">
-        <f>IF(I7="-", "", 1 +SUM(L$2:L7))</f>
+        <f>IF(I7="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L7)))))</f>
         <v/>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -848,7 +848,7 @@
         <v/>
       </c>
       <c r="K7" s="3">
-        <f>IF(I7 = "-", SUM(J$2:J7), 0)</f>
+        <f>IF(I7 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J7)))), 0)</f>
         <v/>
       </c>
       <c r="L7" s="3">
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <f>IF(I8="-", "", 1 +SUM(L$2:L8))</f>
+        <f>IF(I8="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L8)))))</f>
         <v/>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
         <v/>
       </c>
       <c r="K8" s="2">
-        <f>IF(I8 = "-", SUM(J$2:J8), 0)</f>
+        <f>IF(I8 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J8)))), 0)</f>
         <v/>
       </c>
       <c r="L8" s="2">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B9" s="3">
-        <f>IF(I9="-", "", 1 +SUM(L$2:L9))</f>
+        <f>IF(I9="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L9)))))</f>
         <v/>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -960,7 +960,7 @@
         <v/>
       </c>
       <c r="K9" s="3">
-        <f>IF(I9 = "-", SUM(J$2:J9), 0)</f>
+        <f>IF(I9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J9)))), 0)</f>
         <v/>
       </c>
       <c r="L9" s="3">
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <f>IF(I10="-", "", 1 +SUM(L$2:L10))</f>
+        <f>IF(I10="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L10)))))</f>
         <v/>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
         <v/>
       </c>
       <c r="K10" s="2">
-        <f>IF(I10 = "-", SUM(J$2:J10), 0)</f>
+        <f>IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
         <v/>
       </c>
       <c r="L10" s="2">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B11" s="3">
-        <f>IF(I11="-", "", 1 +SUM(L$2:L11))</f>
+        <f>IF(I11="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L11)))))</f>
         <v/>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1072,7 +1072,7 @@
         <v/>
       </c>
       <c r="K11" s="3">
-        <f>IF(I11 = "-", SUM(J$2:J11), 0)</f>
+        <f>IF(I11 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J11)))), 0)</f>
         <v/>
       </c>
       <c r="L11" s="3">
@@ -1089,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <f>IF(I12="-", "", 1 +SUM(L$2:L12))</f>
+        <f>IF(I12="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L12)))))</f>
         <v/>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1123,7 +1123,7 @@
         <v/>
       </c>
       <c r="K12" s="2">
-        <f>IF(I12 = "-", SUM(J$2:J12), 0)</f>
+        <f>IF(I12 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J12)))), 0)</f>
         <v/>
       </c>
       <c r="L12" s="2">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B13" s="3">
-        <f>IF(I13="-", "", 1 +SUM(L$2:L13))</f>
+        <f>IF(I13="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L13)))))</f>
         <v/>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1184,7 +1184,7 @@
         <v/>
       </c>
       <c r="K13" s="3">
-        <f>IF(I13 = "-", SUM(J$2:J13), 0)</f>
+        <f>IF(I13 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J13)))), 0)</f>
         <v/>
       </c>
       <c r="L13" s="3">
@@ -1201,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2">
-        <f>IF(I14="-", "", 1 +SUM(L$2:L14))</f>
+        <f>IF(I14="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L14)))))</f>
         <v/>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1235,7 +1235,7 @@
         <v/>
       </c>
       <c r="K14" s="2">
-        <f>IF(I14 = "-", SUM(J$2:J14), 0)</f>
+        <f>IF(I14 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J14)))), 0)</f>
         <v/>
       </c>
       <c r="L14" s="2">
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="B15" s="3">
-        <f>IF(I15="-", "", 1 +SUM(L$2:L15))</f>
+        <f>IF(I15="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L15)))))</f>
         <v/>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1296,7 +1296,7 @@
         <v/>
       </c>
       <c r="K15" s="3">
-        <f>IF(I15 = "-", SUM(J$2:J15), 0)</f>
+        <f>IF(I15 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J15)))), 0)</f>
         <v/>
       </c>
       <c r="L15" s="3">
@@ -1313,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="2">
-        <f>IF(I16="-", "", 1 +SUM(L$2:L16))</f>
+        <f>IF(I16="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L16)))))</f>
         <v/>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1347,7 +1347,7 @@
         <v/>
       </c>
       <c r="K16" s="2">
-        <f>IF(I16 = "-", SUM(J$2:J16), 0)</f>
+        <f>IF(I16 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J16)))), 0)</f>
         <v/>
       </c>
       <c r="L16" s="2">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B17" s="3">
-        <f>IF(I17="-", "", 1 +SUM(L$2:L17))</f>
+        <f>IF(I17="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L17)))))</f>
         <v/>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1408,7 +1408,7 @@
         <v/>
       </c>
       <c r="K17" s="3">
-        <f>IF(I17 = "-", SUM(J$2:J17), 0)</f>
+        <f>IF(I17 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J17)))), 0)</f>
         <v/>
       </c>
       <c r="L17" s="3">
@@ -1425,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="2">
-        <f>IF(I18="-", "", 1 +SUM(L$2:L18))</f>
+        <f>IF(I18="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L18)))))</f>
         <v/>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
         <v/>
       </c>
       <c r="K18" s="2">
-        <f>IF(I18 = "-", SUM(J$2:J18), 0)</f>
+        <f>IF(I18 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J18)))), 0)</f>
         <v/>
       </c>
       <c r="L18" s="2">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B19" s="3">
-        <f>IF(I19="-", "", 1 +SUM(L$2:L19))</f>
+        <f>IF(I19="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L19)))))</f>
         <v/>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1520,7 +1520,7 @@
         <v/>
       </c>
       <c r="K19" s="3">
-        <f>IF(I19 = "-", SUM(J$2:J19), 0)</f>
+        <f>IF(I19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J19)))), 0)</f>
         <v/>
       </c>
       <c r="L19" s="3">
@@ -1537,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <f>IF(I20="-", "", 1 +SUM(L$2:L20))</f>
+        <f>IF(I20="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L20)))))</f>
         <v/>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -1571,7 +1571,7 @@
         <v/>
       </c>
       <c r="K20" s="4">
-        <f>IF(I20 = "-", SUM(J$2:J20), 0)</f>
+        <f>IF(I20 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J20)))), 0)</f>
         <v/>
       </c>
       <c r="L20" s="4">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B21" s="3">
-        <f>IF(I21="-", "", 1 +SUM(L$2:L21))</f>
+        <f>IF(I21="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L21)))))</f>
         <v/>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1632,7 +1632,7 @@
         <v/>
       </c>
       <c r="K21" s="3">
-        <f>IF(I21 = "-", SUM(J$2:J21), 0)</f>
+        <f>IF(I21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J21)))), 0)</f>
         <v/>
       </c>
       <c r="L21" s="3">
@@ -1649,7 +1649,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="4">
-        <f>IF(I22="-", "", 1 +SUM(L$2:L22))</f>
+        <f>IF(I22="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L22)))))</f>
         <v/>
       </c>
       <c r="C22" s="4" t="inlineStr">
@@ -1683,7 +1683,7 @@
         <v/>
       </c>
       <c r="K22" s="4">
-        <f>IF(I22 = "-", SUM(J$2:J22), 0)</f>
+        <f>IF(I22 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J22)))), 0)</f>
         <v/>
       </c>
       <c r="L22" s="4">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B23" s="3">
-        <f>IF(I23="-", "", 1 +SUM(L$2:L23))</f>
+        <f>IF(I23="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L23)))))</f>
         <v/>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1744,7 +1744,7 @@
         <v/>
       </c>
       <c r="K23" s="3">
-        <f>IF(I23 = "-", SUM(J$2:J23), 0)</f>
+        <f>IF(I23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J23)))), 0)</f>
         <v/>
       </c>
       <c r="L23" s="3">
@@ -1761,7 +1761,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="4">
-        <f>IF(I24="-", "", 1 +SUM(L$2:L24))</f>
+        <f>IF(I24="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L24)))))</f>
         <v/>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -1795,7 +1795,7 @@
         <v/>
       </c>
       <c r="K24" s="4">
-        <f>IF(I24 = "-", SUM(J$2:J24), 0)</f>
+        <f>IF(I24 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J24)))), 0)</f>
         <v/>
       </c>
       <c r="L24" s="4">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="B25" s="3">
-        <f>IF(I25="-", "", 1 +SUM(L$2:L25))</f>
+        <f>IF(I25="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L25)))))</f>
         <v/>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1856,7 +1856,7 @@
         <v/>
       </c>
       <c r="K25" s="3">
-        <f>IF(I25 = "-", SUM(J$2:J25), 0)</f>
+        <f>IF(I25 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J25)))), 0)</f>
         <v/>
       </c>
       <c r="L25" s="3">
@@ -1873,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="2">
-        <f>IF(I26="-", "", 1 +SUM(L$2:L26))</f>
+        <f>IF(I26="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L26)))))</f>
         <v/>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1907,7 +1907,7 @@
         <v/>
       </c>
       <c r="K26" s="2">
-        <f>IF(I26 = "-", SUM(J$2:J26), 0)</f>
+        <f>IF(I26 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J26)))), 0)</f>
         <v/>
       </c>
       <c r="L26" s="2">
@@ -1924,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="2">
-        <f>IF(I27="-", "", 1 +SUM(L$2:L27))</f>
+        <f>IF(I27="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L27)))))</f>
         <v/>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
         <v/>
       </c>
       <c r="K27" s="2">
-        <f>IF(I27 = "-", SUM(J$2:J27), 0)</f>
+        <f>IF(I27 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J27)))), 0)</f>
         <v/>
       </c>
       <c r="L27" s="2">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="B28" s="3">
-        <f>IF(I28="-", "", 1 +SUM(L$2:L28))</f>
+        <f>IF(I28="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L28)))))</f>
         <v/>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2019,7 +2019,7 @@
         <v/>
       </c>
       <c r="K28" s="3">
-        <f>IF(I28 = "-", SUM(J$2:J28), 0)</f>
+        <f>IF(I28 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J28)))), 0)</f>
         <v/>
       </c>
       <c r="L28" s="3">
@@ -2036,7 +2036,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="4">
-        <f>IF(I29="-", "", 1 +SUM(L$2:L29))</f>
+        <f>IF(I29="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L29)))))</f>
         <v/>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -2070,7 +2070,7 @@
         <v/>
       </c>
       <c r="K29" s="4">
-        <f>IF(I29 = "-", SUM(J$2:J29), 0)</f>
+        <f>IF(I29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J29)))), 0)</f>
         <v/>
       </c>
       <c r="L29" s="4">
@@ -2087,7 +2087,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="2">
-        <f>IF(I30="-", "", 1 +SUM(L$2:L30))</f>
+        <f>IF(I30="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L30)))))</f>
         <v/>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
         <v/>
       </c>
       <c r="K30" s="2">
-        <f>IF(I30 = "-", SUM(J$2:J30), 0)</f>
+        <f>IF(I30 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J30)))), 0)</f>
         <v/>
       </c>
       <c r="L30" s="2">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B31" s="3">
-        <f>IF(I31="-", "", 1 +SUM(L$2:L31))</f>
+        <f>IF(I31="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L31)))))</f>
         <v/>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2182,7 +2182,7 @@
         <v/>
       </c>
       <c r="K31" s="3">
-        <f>IF(I31 = "-", SUM(J$2:J31), 0)</f>
+        <f>IF(I31 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J31)))), 0)</f>
         <v/>
       </c>
       <c r="L31" s="3">
@@ -2199,7 +2199,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="4">
-        <f>IF(I32="-", "", 1 +SUM(L$2:L32))</f>
+        <f>IF(I32="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L32)))))</f>
         <v/>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -2233,7 +2233,7 @@
         <v/>
       </c>
       <c r="K32" s="4">
-        <f>IF(I32 = "-", SUM(J$2:J32), 0)</f>
+        <f>IF(I32 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J32)))), 0)</f>
         <v/>
       </c>
       <c r="L32" s="4">
@@ -2250,7 +2250,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4">
-        <f>IF(I33="-", "", 1 +SUM(L$2:L33))</f>
+        <f>IF(I33="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L33)))))</f>
         <v/>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -2284,7 +2284,7 @@
         <v/>
       </c>
       <c r="K33" s="4">
-        <f>IF(I33 = "-", SUM(J$2:J33), 0)</f>
+        <f>IF(I33 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J33)))), 0)</f>
         <v/>
       </c>
       <c r="L33" s="4">
@@ -2301,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="4">
-        <f>IF(I34="-", "", 1 +SUM(L$2:L34))</f>
+        <f>IF(I34="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L34)))))</f>
         <v/>
       </c>
       <c r="C34" s="4" t="inlineStr">
@@ -2335,7 +2335,7 @@
         <v/>
       </c>
       <c r="K34" s="4">
-        <f>IF(I34 = "-", SUM(J$2:J34), 0)</f>
+        <f>IF(I34 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J34)))), 0)</f>
         <v/>
       </c>
       <c r="L34" s="4">
@@ -2352,7 +2352,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="4">
-        <f>IF(I35="-", "", 1 +SUM(L$2:L35))</f>
+        <f>IF(I35="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L35)))))</f>
         <v/>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -2386,7 +2386,7 @@
         <v/>
       </c>
       <c r="K35" s="4">
-        <f>IF(I35 = "-", SUM(J$2:J35), 0)</f>
+        <f>IF(I35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J35)))), 0)</f>
         <v/>
       </c>
       <c r="L35" s="4">
@@ -2403,7 +2403,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="2">
-        <f>IF(I36="-", "", 1 +SUM(L$2:L36))</f>
+        <f>IF(I36="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L36)))))</f>
         <v/>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2437,7 +2437,7 @@
         <v/>
       </c>
       <c r="K36" s="2">
-        <f>IF(I36 = "-", SUM(J$2:J36), 0)</f>
+        <f>IF(I36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J36)))), 0)</f>
         <v/>
       </c>
       <c r="L36" s="2">
@@ -2454,7 +2454,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="2">
-        <f>IF(I37="-", "", 1 +SUM(L$2:L37))</f>
+        <f>IF(I37="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L37)))))</f>
         <v/>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2488,7 +2488,7 @@
         <v/>
       </c>
       <c r="K37" s="2">
-        <f>IF(I37 = "-", SUM(J$2:J37), 0)</f>
+        <f>IF(I37 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J37)))), 0)</f>
         <v/>
       </c>
       <c r="L37" s="2">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="B38" s="3">
-        <f>IF(I38="-", "", 1 +SUM(L$2:L38))</f>
+        <f>IF(I38="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L38)))))</f>
         <v/>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -2549,7 +2549,7 @@
         <v/>
       </c>
       <c r="K38" s="3">
-        <f>IF(I38 = "-", SUM(J$2:J38), 0)</f>
+        <f>IF(I38 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J38)))), 0)</f>
         <v/>
       </c>
       <c r="L38" s="3">
@@ -2566,7 +2566,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="4">
-        <f>IF(I39="-", "", 1 +SUM(L$2:L39))</f>
+        <f>IF(I39="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L39)))))</f>
         <v/>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -2600,7 +2600,7 @@
         <v/>
       </c>
       <c r="K39" s="4">
-        <f>IF(I39 = "-", SUM(J$2:J39), 0)</f>
+        <f>IF(I39 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J39)))), 0)</f>
         <v/>
       </c>
       <c r="L39" s="4">
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="B40" s="3">
-        <f>IF(I40="-", "", 1 +SUM(L$2:L40))</f>
+        <f>IF(I40="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L40)))))</f>
         <v/>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -2661,7 +2661,7 @@
         <v/>
       </c>
       <c r="K40" s="3">
-        <f>IF(I40 = "-", SUM(J$2:J40), 0)</f>
+        <f>IF(I40 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J40)))), 0)</f>
         <v/>
       </c>
       <c r="L40" s="3">
@@ -2678,7 +2678,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="4">
-        <f>IF(I41="-", "", 1 +SUM(L$2:L41))</f>
+        <f>IF(I41="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L41)))))</f>
         <v/>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -2712,7 +2712,7 @@
         <v/>
       </c>
       <c r="K41" s="4">
-        <f>IF(I41 = "-", SUM(J$2:J41), 0)</f>
+        <f>IF(I41 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J41)))), 0)</f>
         <v/>
       </c>
       <c r="L41" s="4">
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="B42" s="3">
-        <f>IF(I42="-", "", 1 +SUM(L$2:L42))</f>
+        <f>IF(I42="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L42)))))</f>
         <v/>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2773,7 +2773,7 @@
         <v/>
       </c>
       <c r="K42" s="3">
-        <f>IF(I42 = "-", SUM(J$2:J42), 0)</f>
+        <f>IF(I42 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J42)))), 0)</f>
         <v/>
       </c>
       <c r="L42" s="3">
@@ -2790,7 +2790,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="4">
-        <f>IF(I43="-", "", 1 +SUM(L$2:L43))</f>
+        <f>IF(I43="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L43)))))</f>
         <v/>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -2824,7 +2824,7 @@
         <v/>
       </c>
       <c r="K43" s="4">
-        <f>IF(I43 = "-", SUM(J$2:J43), 0)</f>
+        <f>IF(I43 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J43)))), 0)</f>
         <v/>
       </c>
       <c r="L43" s="4">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="B44" s="3">
-        <f>IF(I44="-", "", 1 +SUM(L$2:L44))</f>
+        <f>IF(I44="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L44)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L44)))))</f>
         <v/>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2885,7 +2885,7 @@
         <v/>
       </c>
       <c r="K44" s="3">
-        <f>IF(I44 = "-", SUM(J$2:J44), 0)</f>
+        <f>IF(I44 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J44)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J44)))), 0)</f>
         <v/>
       </c>
       <c r="L44" s="3">
@@ -3603,7 +3603,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="6">
-        <f>IF(I2="-", "", 1 +SUM(L$2:L2))</f>
+        <f>IF(I2="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L2)))))</f>
         <v/>
       </c>
       <c r="C2" s="6" t="inlineStr">
@@ -3637,7 +3637,7 @@
         <v/>
       </c>
       <c r="K2" s="6">
-        <f>IF(I2 = "-", SUM(J$2:J2), 0)</f>
+        <f>IF(I2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J2)))), 0)</f>
         <v/>
       </c>
       <c r="L2" s="6">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="B3" s="3">
-        <f>IF(I3="-", "", 1 +SUM(L$2:L3))</f>
+        <f>IF(I3="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L3)))))</f>
         <v/>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -3698,7 +3698,7 @@
         <v/>
       </c>
       <c r="K3" s="3">
-        <f>IF(I3 = "-", SUM(J$2:J3), 0)</f>
+        <f>IF(I3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J3)))), 0)</f>
         <v/>
       </c>
       <c r="L3" s="3">
@@ -3715,7 +3715,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="7">
-        <f>IF(I4="-", "", 1 +SUM(L$2:L4))</f>
+        <f>IF(I4="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L4)))))</f>
         <v/>
       </c>
       <c r="C4" s="7" t="inlineStr">
@@ -3749,7 +3749,7 @@
         <v/>
       </c>
       <c r="K4" s="7">
-        <f>IF(I4 = "-", SUM(J$2:J4), 0)</f>
+        <f>IF(I4 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J4)))), 0)</f>
         <v/>
       </c>
       <c r="L4" s="7">
@@ -3766,7 +3766,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="7">
-        <f>IF(I5="-", "", 1 +SUM(L$2:L5))</f>
+        <f>IF(I5="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L5)))))</f>
         <v/>
       </c>
       <c r="C5" s="7" t="inlineStr">
@@ -3800,7 +3800,7 @@
         <v/>
       </c>
       <c r="K5" s="7">
-        <f>IF(I5 = "-", SUM(J$2:J5), 0)</f>
+        <f>IF(I5 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J5)))), 0)</f>
         <v/>
       </c>
       <c r="L5" s="7">
@@ -3817,7 +3817,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="6">
-        <f>IF(I6="-", "", 1 +SUM(L$2:L6))</f>
+        <f>IF(I6="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L6)))))</f>
         <v/>
       </c>
       <c r="C6" s="6" t="inlineStr">
@@ -3851,7 +3851,7 @@
         <v/>
       </c>
       <c r="K6" s="6">
-        <f>IF(I6 = "-", SUM(J$2:J6), 0)</f>
+        <f>IF(I6 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J6)))), 0)</f>
         <v/>
       </c>
       <c r="L6" s="6">
@@ -3868,7 +3868,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="6">
-        <f>IF(I7="-", "", 1 +SUM(L$2:L7))</f>
+        <f>IF(I7="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L7)))))</f>
         <v/>
       </c>
       <c r="C7" s="6" t="inlineStr">
@@ -3902,7 +3902,7 @@
         <v/>
       </c>
       <c r="K7" s="6">
-        <f>IF(I7 = "-", SUM(J$2:J7), 0)</f>
+        <f>IF(I7 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J7)))), 0)</f>
         <v/>
       </c>
       <c r="L7" s="6">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="B8" s="3">
-        <f>IF(I8="-", "", 1 +SUM(L$2:L8))</f>
+        <f>IF(I8="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L8)))))</f>
         <v/>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -3963,7 +3963,7 @@
         <v/>
       </c>
       <c r="K8" s="3">
-        <f>IF(I8 = "-", SUM(J$2:J8), 0)</f>
+        <f>IF(I8 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J8)))), 0)</f>
         <v/>
       </c>
       <c r="L8" s="3">
@@ -3980,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="7">
-        <f>IF(I9="-", "", 1 +SUM(L$2:L9))</f>
+        <f>IF(I9="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L9)))))</f>
         <v/>
       </c>
       <c r="C9" s="7" t="inlineStr">
@@ -4014,7 +4014,7 @@
         <v/>
       </c>
       <c r="K9" s="7">
-        <f>IF(I9 = "-", SUM(J$2:J9), 0)</f>
+        <f>IF(I9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J9)))), 0)</f>
         <v/>
       </c>
       <c r="L9" s="7">
@@ -4031,7 +4031,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="7">
-        <f>IF(I10="-", "", 1 +SUM(L$2:L10))</f>
+        <f>IF(I10="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L10)))))</f>
         <v/>
       </c>
       <c r="C10" s="7" t="inlineStr">
@@ -4065,7 +4065,7 @@
         <v/>
       </c>
       <c r="K10" s="7">
-        <f>IF(I10 = "-", SUM(J$2:J10), 0)</f>
+        <f>IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
         <v/>
       </c>
       <c r="L10" s="7">
@@ -4082,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="7">
-        <f>IF(I11="-", "", 1 +SUM(L$2:L11))</f>
+        <f>IF(I11="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L11)))))</f>
         <v/>
       </c>
       <c r="C11" s="7" t="inlineStr">
@@ -4116,7 +4116,7 @@
         <v/>
       </c>
       <c r="K11" s="7">
-        <f>IF(I11 = "-", SUM(J$2:J11), 0)</f>
+        <f>IF(I11 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J11)))), 0)</f>
         <v/>
       </c>
       <c r="L11" s="7">
@@ -4133,7 +4133,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="7">
-        <f>IF(I12="-", "", 1 +SUM(L$2:L12))</f>
+        <f>IF(I12="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L12)))))</f>
         <v/>
       </c>
       <c r="C12" s="7" t="inlineStr">
@@ -4167,7 +4167,7 @@
         <v/>
       </c>
       <c r="K12" s="7">
-        <f>IF(I12 = "-", SUM(J$2:J12), 0)</f>
+        <f>IF(I12 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J12)))), 0)</f>
         <v/>
       </c>
       <c r="L12" s="7">
@@ -4184,7 +4184,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="6">
-        <f>IF(I13="-", "", 1 +SUM(L$2:L13))</f>
+        <f>IF(I13="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L13)))))</f>
         <v/>
       </c>
       <c r="C13" s="6" t="inlineStr">
@@ -4218,7 +4218,7 @@
         <v/>
       </c>
       <c r="K13" s="6">
-        <f>IF(I13 = "-", SUM(J$2:J13), 0)</f>
+        <f>IF(I13 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J13)))), 0)</f>
         <v/>
       </c>
       <c r="L13" s="6">
@@ -4235,7 +4235,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="6">
-        <f>IF(I14="-", "", 1 +SUM(L$2:L14))</f>
+        <f>IF(I14="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L14)))))</f>
         <v/>
       </c>
       <c r="C14" s="6" t="inlineStr">
@@ -4269,7 +4269,7 @@
         <v/>
       </c>
       <c r="K14" s="6">
-        <f>IF(I14 = "-", SUM(J$2:J14), 0)</f>
+        <f>IF(I14 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J14)))), 0)</f>
         <v/>
       </c>
       <c r="L14" s="6">
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="B15" s="3">
-        <f>IF(I15="-", "", 1 +SUM(L$2:L15))</f>
+        <f>IF(I15="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L15)))))</f>
         <v/>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -4330,7 +4330,7 @@
         <v/>
       </c>
       <c r="K15" s="3">
-        <f>IF(I15 = "-", SUM(J$2:J15), 0)</f>
+        <f>IF(I15 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J15)))), 0)</f>
         <v/>
       </c>
       <c r="L15" s="3">
@@ -4347,7 +4347,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="6">
-        <f>IF(I16="-", "", 1 +SUM(L$2:L16))</f>
+        <f>IF(I16="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L16)))))</f>
         <v/>
       </c>
       <c r="C16" s="6" t="inlineStr">
@@ -4381,7 +4381,7 @@
         <v/>
       </c>
       <c r="K16" s="6">
-        <f>IF(I16 = "-", SUM(J$2:J16), 0)</f>
+        <f>IF(I16 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J16)))), 0)</f>
         <v/>
       </c>
       <c r="L16" s="6">
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="B17" s="3">
-        <f>IF(I17="-", "", 1 +SUM(L$2:L17))</f>
+        <f>IF(I17="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L17)))))</f>
         <v/>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -4442,7 +4442,7 @@
         <v/>
       </c>
       <c r="K17" s="3">
-        <f>IF(I17 = "-", SUM(J$2:J17), 0)</f>
+        <f>IF(I17 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J17)))), 0)</f>
         <v/>
       </c>
       <c r="L17" s="3">
@@ -4459,7 +4459,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="6">
-        <f>IF(I18="-", "", 1 +SUM(L$2:L18))</f>
+        <f>IF(I18="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L18)))))</f>
         <v/>
       </c>
       <c r="C18" s="6" t="inlineStr">
@@ -4493,7 +4493,7 @@
         <v/>
       </c>
       <c r="K18" s="6">
-        <f>IF(I18 = "-", SUM(J$2:J18), 0)</f>
+        <f>IF(I18 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J18)))), 0)</f>
         <v/>
       </c>
       <c r="L18" s="6">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B19" s="3">
-        <f>IF(I19="-", "", 1 +SUM(L$2:L19))</f>
+        <f>IF(I19="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L19)))))</f>
         <v/>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -4554,7 +4554,7 @@
         <v/>
       </c>
       <c r="K19" s="3">
-        <f>IF(I19 = "-", SUM(J$2:J19), 0)</f>
+        <f>IF(I19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J19)))), 0)</f>
         <v/>
       </c>
       <c r="L19" s="3">

--- a/app/data/constructor/plan_2020-12-17.xlsx
+++ b/app/data/constructor/plan_2020-12-17.xlsx
@@ -470,7 +470,7 @@
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col hidden="1" width="13" customWidth="1" min="8" max="8"/>
+    <col hidden="1" width="13" customWidth="1" min="9" max="9"/>
     <col hidden="1" width="13" customWidth="1" min="10" max="10"/>
     <col hidden="1" width="13" customWidth="1" min="11" max="11"/>
     <col hidden="1" width="13" customWidth="1" min="12" max="12"/>
@@ -3544,7 +3544,7 @@
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col hidden="1" width="13" customWidth="1" min="8" max="8"/>
+    <col hidden="1" width="13" customWidth="1" min="9" max="9"/>
     <col hidden="1" width="13" customWidth="1" min="10" max="10"/>
     <col hidden="1" width="13" customWidth="1" min="11" max="11"/>
     <col hidden="1" width="13" customWidth="1" min="12" max="12"/>
